--- a/Internship_Project/Data Analytics Check list(Raja DS intern Batch 93).xlsx
+++ b/Internship_Project/Data Analytics Check list(Raja DS intern Batch 93).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\360digit DA and DS internship(Batch 93)\Internship_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D94D2-104C-45C0-8F8D-FE481175FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2A868-15A4-454D-B2C3-23EFFC99E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,49 +578,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">======
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ID#AAAAxC1i8qE
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Sharat    (2023-05-16 06:20:29)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Features could be defined on different scales and might lead to strong bias to features on larger scales, hence normalization is required.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
@@ -631,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Steps</t>
   </si>
@@ -717,9 +674,6 @@
     <t xml:space="preserve">File format </t>
   </si>
   <si>
-    <t xml:space="preserve">Normalization </t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate performance </t>
   </si>
   <si>
@@ -786,9 +740,6 @@
     <t>Data collected in standard csv file format</t>
   </si>
   <si>
-    <t>To reduce bias range of data is needed</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -796,6 +747,9 @@
   </si>
   <si>
     <t>Dashboad report will based on the quantitative mesurments in data, describes correlation between measuments to identity machine down time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1188,9 +1142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1344,7 +1298,7 @@
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1368,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1381,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="4"/>
@@ -1406,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13"/>
       <c r="G12" s="4"/>
@@ -1419,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -1445,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
@@ -1470,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="13"/>
       <c r="G17" s="4"/>
@@ -1483,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="13"/>
       <c r="G18" s="4"/>
@@ -1496,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="13"/>
       <c r="G19" s="4"/>
@@ -1531,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="13"/>
       <c r="G22" s="4"/>
@@ -1555,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="13"/>
       <c r="G24" s="4"/>
@@ -1568,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="13"/>
       <c r="G25" s="4"/>
@@ -1592,7 +1546,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="13"/>
       <c r="G27" s="4"/>
@@ -1602,11 +1556,9 @@
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="D28" s="12"/>
       <c r="E28" s="13"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1622,7 +1574,7 @@
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -1632,13 +1584,13 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="13"/>
       <c r="G31" s="4"/>
@@ -1655,7 +1607,7 @@
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -1667,10 +1619,10 @@
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="13"/>
       <c r="G34" s="4"/>
@@ -1688,7 +1640,7 @@
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="12"/>
@@ -1699,7 +1651,7 @@
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -1718,10 +1670,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>

--- a/Internship_Project/Data Analytics Check list(Raja DS intern Batch 93).xlsx
+++ b/Internship_Project/Data Analytics Check list(Raja DS intern Batch 93).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\360digit DA and DS internship(Batch 93)\Internship_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2A868-15A4-454D-B2C3-23EFFC99E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F79DC7-5A03-4269-8B68-FDB98DCB0741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Steps</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>Sub-Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Use the sections which you feel are valid for your project. </t>
   </si>
   <si>
     <t>Business &amp; Data Understanding</t>
@@ -713,9 +710,6 @@
     <t>New data should be used with permission of customers</t>
   </si>
   <si>
-    <t>As of now no changes in dataset</t>
-  </si>
-  <si>
     <t>Dataset from customers (Collected)</t>
   </si>
   <si>
@@ -740,16 +734,25 @@
     <t>Data collected in standard csv file format</t>
   </si>
   <si>
-    <t>Python</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Data manipulation and visulization</t>
+    <t>Column names are changed to load the data into postgres DB</t>
   </si>
   <si>
-    <t>Dashboad report will based on the quantitative mesurments in data, describes correlation between measuments to identity machine down time</t>
+    <t>Matplotlib</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Data manipulation</t>
+  </si>
+  <si>
+    <t>Data visulization</t>
+  </si>
+  <si>
+    <t>Dashboad report will based on the quantitative mesurments in data, Describes how many features values are increased and decreased when machine downtime occurred</t>
   </si>
 </sst>
 </file>
@@ -1142,9 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1190,9 +1193,7 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1267,7 +1268,7 @@
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1278,13 +1279,13 @@
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1294,11 +1295,11 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1306,7 +1307,7 @@
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1319,10 +1320,10 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1332,10 +1333,10 @@
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="4"/>
@@ -1344,7 +1345,7 @@
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -1357,10 +1358,10 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13"/>
       <c r="G12" s="4"/>
@@ -1370,10 +1371,10 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -1383,7 +1384,7 @@
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -1396,10 +1397,10 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
@@ -1409,7 +1410,7 @@
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -1421,10 +1422,10 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="13"/>
       <c r="G17" s="4"/>
@@ -1434,10 +1435,10 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="13"/>
       <c r="G18" s="4"/>
@@ -1447,10 +1448,10 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="13"/>
       <c r="G19" s="4"/>
@@ -1458,7 +1459,7 @@
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -1470,7 +1471,7 @@
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -1482,10 +1483,10 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="13"/>
       <c r="G22" s="4"/>
@@ -1494,7 +1495,7 @@
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -1506,10 +1507,10 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="13"/>
       <c r="G24" s="4"/>
@@ -1519,10 +1520,10 @@
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="13"/>
       <c r="G25" s="4"/>
@@ -1531,7 +1532,7 @@
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1543,10 +1544,10 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="13"/>
       <c r="G27" s="4"/>
@@ -1556,7 +1557,7 @@
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
@@ -1574,7 +1575,7 @@
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -1584,13 +1585,13 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E31" s="13"/>
       <c r="G31" s="4"/>
@@ -1607,7 +1608,7 @@
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -1619,10 +1620,10 @@
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="13"/>
       <c r="G34" s="4"/>
@@ -1631,8 +1632,12 @@
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1640,7 +1645,7 @@
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="12"/>
@@ -1651,7 +1656,7 @@
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -1670,10 +1675,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
